--- a/biology/Botanique/Carduus_crispus/Carduus_crispus.xlsx
+++ b/biology/Botanique/Carduus_crispus/Carduus_crispus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chardon crépu
 Le Chardon crépu (Carduus crispus L.) est une espèce de plante à fleurs de la famille des astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée. Hauteur de 30 à 1,50 m. La tige est épineuse. Les fleurs sont de couleur rouge pourpre, groupées en capitule de 15 à 25 mm. Les feuilles sont lancéolées ou elliptiques, lobées ou dentées.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de juin à septembre. Hémicryptophyte bisannuel. Mellifère.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bords des chemins, friches, berges de rivières et talus, coupes forestières. Jusqu'à 1 900 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition[1].</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Europe occidentale et nord-occidentale pour la sous-espèce multiflorus (synonyme subsp. occidentalis).
 Europe centrale, méridionale et orientale pour la sous-espèce crispus.</t>
